--- a/Employee Pay Adjustment Process/Data/Config.xlsx
+++ b/Employee Pay Adjustment Process/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raksh\OneDrive\Documents\UiPath\Employee Pay Adjustment Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E215F03-BA4A-48CB-A470-B2E852AE1E03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FEA89-CC4A-4C22-BCA7-A3218D9480AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="132" windowWidth="20340" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Employee Pay Adjustment Process/Data/Config.xlsx
+++ b/Employee Pay Adjustment Process/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raksh\OneDrive\Documents\UiPath\Employee Pay Adjustment Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285FEA89-CC4A-4C22-BCA7-A3218D9480AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C9D759-6096-497A-A21E-731D9D3A4106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2700" yWindow="132" windowWidth="20340" windowHeight="11256" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -168,9 +168,6 @@
     <t>MailTo</t>
   </si>
   <si>
-    <t>Tanumoy.parui@natwestmarkets.com</t>
-  </si>
-  <si>
     <t>ReportSubject</t>
   </si>
   <si>
@@ -235,9 +232,6 @@
   </si>
   <si>
     <t>EmailFrom</t>
-  </si>
-  <si>
-    <t>Tanumoy.Parui@natwestmarkets.com</t>
   </si>
   <si>
     <t>EmailSubject</t>
@@ -301,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Subject of thel email with attached report </t>
+  </si>
+  <si>
+    <t>tanumoy.Parui@natwestmarkets.com</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -387,6 +384,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -757,7 +757,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -789,21 +789,21 @@
         <v>44</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -811,131 +811,131 @@
         <v>45</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>47</v>
+      <c r="B9" s="10" t="s">
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="99" customHeight="1">
       <c r="A11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="91.8" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>62</v>
-      </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="C15" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>66</v>
-      </c>
       <c r="C16" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14.25" customHeight="1">
       <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="C17" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
@@ -1920,9 +1920,10 @@
   <phoneticPr fontId="2"/>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" xr:uid="{5B521127-4E2B-4824-9AF2-2FC54420379E}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{AF05147B-865A-4D46-814D-EA290E4E6CD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2114,7 +2115,7 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5">
         <v>10000</v>
@@ -2122,10 +2123,10 @@
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
